--- a/data/Eksklusion_lande/Danske Bank_eksklusionsliste_lande_isin.xlsx
+++ b/data/Eksklusion_lande/Danske Bank_eksklusionsliste_lande_isin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
   <si>
     <t>Land</t>
   </si>
@@ -211,25 +211,13 @@
     <t>['XS1827041721', 'XS2356571559']</t>
   </si>
   <si>
-    <t>['XS1717011982', 'XS1717013095', 'XS1777972941', 'XS1910826996', 'XS1910827887', 'XS1910828182', 'XS2337067792', 'XS2384701020', 'XS2384704800', 'XS2445169985']</t>
-  </si>
-  <si>
     <t>['Burundi']</t>
   </si>
   <si>
-    <t>['NIGERIA, FEDERAL REPUBLIC OF (GOVERNMENT)', 'Nigeria', 'Nigeria Government International Bond', 'REPUBLIC OF NIGERIA  ', '7.63% Nigeria Government International Bond 2025', '8.75% Nigeria Government International Bond 2031', 'Federal Republic of Nigeria', '8.38% Nigeria Government International Bond 2029']</t>
-  </si>
-  <si>
     <t>['EASTERN &amp; SOUTHERN AFRIC 4.875% 23.05.2024', 'EASTERN &amp; SOUTHERN AFRIC 4.125% 30.06.2028']</t>
   </si>
   <si>
-    <t>['Nigeria, Federal Republic Of (Government) 6.5% 20271128', 'Nigeria, Federal Republic Of (Government) 7.625% 20471128', 'REPUBLIC OF NIGERIA 7.625% 28.11.2047', 'Nigeria, Federal Republic Of (Government) 7.696% 20380223', '7.63% Nigeria Government International Bond 2025', 'Nigeria, Federal Republic Of (Government) 7.625% 20251121', '8.75% Nigeria Government International Bond 2031', 'Nigeria, Federal Republic Of (Government) 8.747% 20310121', 'REPUBLIC OF NIGERIA 8.747% 21.01.2031', 'Nigeria, Federal Republic Of (Government) 9.248% 20490121', 'AFRICA FINANCE CORP 2.875% 28.04.2028', '7,375 NGERIA 28-09-2033 (REGS)', 'REPUBLIC OF NIGERIA 7.375% 28.09.2033', '8,25 NGERIA 28-09-2051 (REGS)', 'Nigeria, Federal Republic Of (Government) 8.25% 20510928', 'REPUBLIC OF NIGERIA 8.25% 28.09.2051', '8,375 NGERIA 24-03-2029 (REGS)', '8.38% Nigeria Government International Bond 2029', 'Nigeria, Federal Republic Of (Government) 8.375% 20290324', 'REPUBLIC OF NIGERIA 8.375% 24.03.2029']</t>
-  </si>
-  <si>
     <t>['Fanø', 'Kalundborg']</t>
-  </si>
-  <si>
-    <t>['Vesthimmerland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -651,7 +639,7 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -700,7 +688,7 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -717,13 +705,13 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1095,16 +1083,16 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
         <v>26</v>
@@ -1159,7 +1147,7 @@
         <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
